--- a/data/drone_tech.xlsx
+++ b/data/drone_tech.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">pressure_stick</t>
+  </si>
   <si>
     <t xml:space="preserve">drone_rgb</t>
   </si>
   <si>
-    <t xml:space="preserve">pressure_stick</t>
+    <t xml:space="preserve">drone_cmyk</t>
   </si>
 </sst>
 </file>
@@ -356,6 +359,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -364,6 +370,9 @@
       <c r="B2" t="n">
         <v>373.31</v>
       </c>
+      <c r="C2" t="n">
+        <v>254.65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -372,6 +381,9 @@
       <c r="B3" t="n">
         <v>671.45</v>
       </c>
+      <c r="C3" t="n">
+        <v>234.86</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -380,6 +392,9 @@
       <c r="B4" t="n">
         <v>544.5</v>
       </c>
+      <c r="C4" t="n">
+        <v>184.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -388,6 +403,9 @@
       <c r="B5" t="n">
         <v>345.8</v>
       </c>
+      <c r="C5" t="n">
+        <v>175.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -396,6 +414,9 @@
       <c r="B6" t="n">
         <v>278.99</v>
       </c>
+      <c r="C6" t="n">
+        <v>163.77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -404,6 +425,9 @@
       <c r="B7" t="n">
         <v>341.93</v>
       </c>
+      <c r="C7" t="n">
+        <v>238.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -412,6 +436,9 @@
       <c r="B8" t="n">
         <v>453.88</v>
       </c>
+      <c r="C8" t="n">
+        <v>245.18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -420,6 +447,9 @@
       <c r="B9" t="n">
         <v>306.46</v>
       </c>
+      <c r="C9" t="n">
+        <v>206.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -428,6 +458,9 @@
       <c r="B10" t="n">
         <v>394.18</v>
       </c>
+      <c r="C10" t="n">
+        <v>207.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -436,6 +469,9 @@
       <c r="B11" t="n">
         <v>756.22</v>
       </c>
+      <c r="C11" t="n">
+        <v>235.85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -444,6 +480,9 @@
       <c r="B12" t="n">
         <v>403.65</v>
       </c>
+      <c r="C12" t="n">
+        <v>238.66</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -452,6 +491,9 @@
       <c r="B13" t="n">
         <v>461.87</v>
       </c>
+      <c r="C13" t="n">
+        <v>268.45</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -460,6 +502,9 @@
       <c r="B14" t="n">
         <v>494.46</v>
       </c>
+      <c r="C14" t="n">
+        <v>237.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -468,6 +513,9 @@
       <c r="B15" t="n">
         <v>223.59</v>
       </c>
+      <c r="C15" t="n">
+        <v>136.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -476,6 +524,9 @@
       <c r="B16" t="n">
         <v>658.01</v>
       </c>
+      <c r="C16" t="n">
+        <v>207.97</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -484,6 +535,9 @@
       <c r="B17" t="n">
         <v>491.53</v>
       </c>
+      <c r="C17" t="n">
+        <v>223.53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -492,6 +546,9 @@
       <c r="B18" t="n">
         <v>435.14</v>
       </c>
+      <c r="C18" t="n">
+        <v>201.88</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -500,6 +557,9 @@
       <c r="B19" t="n">
         <v>503.18</v>
       </c>
+      <c r="C19" t="n">
+        <v>247.34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -508,6 +568,9 @@
       <c r="B20" t="n">
         <v>207.48</v>
       </c>
+      <c r="C20" t="n">
+        <v>119.23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -516,6 +579,9 @@
       <c r="B21" t="n">
         <v>683.7</v>
       </c>
+      <c r="C21" t="n">
+        <v>239.96</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -524,6 +590,9 @@
       <c r="B22" t="n">
         <v>952.67</v>
       </c>
+      <c r="C22" t="n">
+        <v>288.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -532,6 +601,9 @@
       <c r="B23" t="n">
         <v>370.31</v>
       </c>
+      <c r="C23" t="n">
+        <v>204.98</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -540,6 +612,9 @@
       <c r="B24" t="n">
         <v>337.02</v>
       </c>
+      <c r="C24" t="n">
+        <v>174.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -548,6 +623,9 @@
       <c r="B25" t="n">
         <v>126.52</v>
       </c>
+      <c r="C25" t="n">
+        <v>197.06</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -556,6 +634,9 @@
       <c r="B26" t="n">
         <v>829.94</v>
       </c>
+      <c r="C26" t="n">
+        <v>303.63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -564,6 +645,9 @@
       <c r="B27" t="n">
         <v>111.37</v>
       </c>
+      <c r="C27" t="n">
+        <v>138.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -572,6 +656,9 @@
       <c r="B28" t="n">
         <v>102.74</v>
       </c>
+      <c r="C28" t="n">
+        <v>142.37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -580,6 +667,9 @@
       <c r="B29" t="n">
         <v>528.37</v>
       </c>
+      <c r="C29" t="n">
+        <v>262.81</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -588,6 +678,9 @@
       <c r="B30" t="n">
         <v>190.33</v>
       </c>
+      <c r="C30" t="n">
+        <v>157.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -596,6 +689,9 @@
       <c r="B31" t="n">
         <v>203.81</v>
       </c>
+      <c r="C31" t="n">
+        <v>128.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -604,6 +700,9 @@
       <c r="B32" t="n">
         <v>188.7</v>
       </c>
+      <c r="C32" t="n">
+        <v>211.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -612,6 +711,9 @@
       <c r="B33" t="n">
         <v>448.14</v>
       </c>
+      <c r="C33" t="n">
+        <v>265.46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -620,6 +722,9 @@
       <c r="B34" t="n">
         <v>440.37</v>
       </c>
+      <c r="C34" t="n">
+        <v>249.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -628,6 +733,9 @@
       <c r="B35" t="n">
         <v>193.93</v>
       </c>
+      <c r="C35" t="n">
+        <v>184.11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -636,6 +744,9 @@
       <c r="B36" t="n">
         <v>196.13</v>
       </c>
+      <c r="C36" t="n">
+        <v>159.27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -644,6 +755,9 @@
       <c r="B37" t="n">
         <v>303.92</v>
       </c>
+      <c r="C37" t="n">
+        <v>245.76</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -652,6 +766,9 @@
       <c r="B38" t="n">
         <v>84.3</v>
       </c>
+      <c r="C38" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -660,6 +777,9 @@
       <c r="B39" t="n">
         <v>164.51</v>
       </c>
+      <c r="C39" t="n">
+        <v>151.07</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -668,6 +788,9 @@
       <c r="B40" t="n">
         <v>282.84</v>
       </c>
+      <c r="C40" t="n">
+        <v>163.41</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -676,6 +799,9 @@
       <c r="B41" t="n">
         <v>503.75</v>
       </c>
+      <c r="C41" t="n">
+        <v>176.44</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -684,6 +810,9 @@
       <c r="B42" t="n">
         <v>604.15</v>
       </c>
+      <c r="C42" t="n">
+        <v>193.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -692,6 +821,9 @@
       <c r="B43" t="n">
         <v>354.12</v>
       </c>
+      <c r="C43" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -700,6 +832,9 @@
       <c r="B44" t="n">
         <v>676.43</v>
       </c>
+      <c r="C44" t="n">
+        <v>338.97</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -708,6 +843,9 @@
       <c r="B45" t="n">
         <v>413.63</v>
       </c>
+      <c r="C45" t="n">
+        <v>232.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -716,6 +854,9 @@
       <c r="B46" t="n">
         <v>76.23</v>
       </c>
+      <c r="C46" t="n">
+        <v>133.48</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -724,6 +865,9 @@
       <c r="B47" t="n">
         <v>943.47</v>
       </c>
+      <c r="C47" t="n">
+        <v>304.62</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -732,6 +876,9 @@
       <c r="B48" t="n">
         <v>221.44</v>
       </c>
+      <c r="C48" t="n">
+        <v>204.78</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -740,6 +887,9 @@
       <c r="B49" t="n">
         <v>459.04</v>
       </c>
+      <c r="C49" t="n">
+        <v>185.85</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -748,6 +898,9 @@
       <c r="B50" t="n">
         <v>80.2</v>
       </c>
+      <c r="C50" t="n">
+        <v>188.86</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -756,6 +909,9 @@
       <c r="B51" t="n">
         <v>436.03</v>
       </c>
+      <c r="C51" t="n">
+        <v>242.86</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -764,6 +920,9 @@
       <c r="B52" t="n">
         <v>219.58</v>
       </c>
+      <c r="C52" t="n">
+        <v>152.57</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -772,6 +931,9 @@
       <c r="B53" t="n">
         <v>225.86</v>
       </c>
+      <c r="C53" t="n">
+        <v>192.51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -780,6 +942,9 @@
       <c r="B54" t="n">
         <v>342.03</v>
       </c>
+      <c r="C54" t="n">
+        <v>232.86</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -788,6 +953,9 @@
       <c r="B55" t="n">
         <v>459.93</v>
       </c>
+      <c r="C55" t="n">
+        <v>278.94</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -796,6 +964,9 @@
       <c r="B56" t="n">
         <v>567.41</v>
       </c>
+      <c r="C56" t="n">
+        <v>244.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -804,6 +975,9 @@
       <c r="B57" t="n">
         <v>364.23</v>
       </c>
+      <c r="C57" t="n">
+        <v>205.98</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -812,6 +986,9 @@
       <c r="B58" t="n">
         <v>802.43</v>
       </c>
+      <c r="C58" t="n">
+        <v>312.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -820,6 +997,9 @@
       <c r="B59" t="n">
         <v>540.9</v>
       </c>
+      <c r="C59" t="n">
+        <v>218.44</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -828,6 +1008,9 @@
       <c r="B60" t="n">
         <v>273.49</v>
       </c>
+      <c r="C60" t="n">
+        <v>174.06</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -836,6 +1019,9 @@
       <c r="B61" t="n">
         <v>704.16</v>
       </c>
+      <c r="C61" t="n">
+        <v>217.97</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -844,6 +1030,9 @@
       <c r="B62" t="n">
         <v>396.6</v>
       </c>
+      <c r="C62" t="n">
+        <v>197.45</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -852,6 +1041,9 @@
       <c r="B63" t="n">
         <v>749.02</v>
       </c>
+      <c r="C63" t="n">
+        <v>277.89</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -860,6 +1052,9 @@
       <c r="B64" t="n">
         <v>33.24</v>
       </c>
+      <c r="C64" t="n">
+        <v>63.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -868,6 +1063,9 @@
       <c r="B65" t="n">
         <v>247.55</v>
       </c>
+      <c r="C65" t="n">
+        <v>251.14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -876,6 +1074,9 @@
       <c r="B66" t="n">
         <v>252.95</v>
       </c>
+      <c r="C66" t="n">
+        <v>247.85</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -884,6 +1085,9 @@
       <c r="B67" t="n">
         <v>848.45</v>
       </c>
+      <c r="C67" t="n">
+        <v>246.2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -892,6 +1096,9 @@
       <c r="B68" t="n">
         <v>523.48</v>
       </c>
+      <c r="C68" t="n">
+        <v>264.75</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -900,6 +1107,9 @@
       <c r="B69" t="n">
         <v>178.53</v>
       </c>
+      <c r="C69" t="n">
+        <v>186.84</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -908,6 +1118,9 @@
       <c r="B70" t="n">
         <v>300.27</v>
       </c>
+      <c r="C70" t="n">
+        <v>166.98</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -916,6 +1129,9 @@
       <c r="B71" t="n">
         <v>376.81</v>
       </c>
+      <c r="C71" t="n">
+        <v>234.65</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -924,6 +1140,9 @@
       <c r="B72" t="n">
         <v>79.56</v>
       </c>
+      <c r="C72" t="n">
+        <v>174.02</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -932,6 +1151,9 @@
       <c r="B73" t="n">
         <v>524.34</v>
       </c>
+      <c r="C73" t="n">
+        <v>291.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -940,6 +1162,9 @@
       <c r="B74" t="n">
         <v>635.66</v>
       </c>
+      <c r="C74" t="n">
+        <v>239.92</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -948,6 +1173,9 @@
       <c r="B75" t="n">
         <v>235.66</v>
       </c>
+      <c r="C75" t="n">
+        <v>250.08</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -956,6 +1184,9 @@
       <c r="B76" t="n">
         <v>140.57</v>
       </c>
+      <c r="C76" t="n">
+        <v>127.26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -964,6 +1195,9 @@
       <c r="B77" t="n">
         <v>525.42</v>
       </c>
+      <c r="C77" t="n">
+        <v>189.43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -972,6 +1206,9 @@
       <c r="B78" t="n">
         <v>195.37</v>
       </c>
+      <c r="C78" t="n">
+        <v>193.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -980,6 +1217,9 @@
       <c r="B79" t="n">
         <v>80.09</v>
       </c>
+      <c r="C79" t="n">
+        <v>178.37</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -988,6 +1228,9 @@
       <c r="B80" t="n">
         <v>391.89</v>
       </c>
+      <c r="C80" t="n">
+        <v>209.08</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -996,6 +1239,9 @@
       <c r="B81" t="n">
         <v>256.21</v>
       </c>
+      <c r="C81" t="n">
+        <v>153.07</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1004,6 +1250,9 @@
       <c r="B82" t="n">
         <v>261.21</v>
       </c>
+      <c r="C82" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1012,6 +1261,9 @@
       <c r="B83" t="n">
         <v>538.89</v>
       </c>
+      <c r="C83" t="n">
+        <v>287.53</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1020,6 +1272,9 @@
       <c r="B84" t="n">
         <v>444.19</v>
       </c>
+      <c r="C84" t="n">
+        <v>200.09</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1028,6 +1283,9 @@
       <c r="B85" t="n">
         <v>257.79</v>
       </c>
+      <c r="C85" t="n">
+        <v>216.44</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1036,6 +1294,9 @@
       <c r="B86" t="n">
         <v>309.29</v>
       </c>
+      <c r="C86" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1044,6 +1305,9 @@
       <c r="B87" t="n">
         <v>52.03</v>
       </c>
+      <c r="C87" t="n">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1052,6 +1316,9 @@
       <c r="B88" t="n">
         <v>244.53</v>
       </c>
+      <c r="C88" t="n">
+        <v>173.88</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1060,6 +1327,9 @@
       <c r="B89" t="n">
         <v>323.45</v>
       </c>
+      <c r="C89" t="n">
+        <v>194.59</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1068,6 +1338,9 @@
       <c r="B90" t="n">
         <v>1053.19</v>
       </c>
+      <c r="C90" t="n">
+        <v>338.48</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1076,6 +1349,9 @@
       <c r="B91" t="n">
         <v>186.59</v>
       </c>
+      <c r="C91" t="n">
+        <v>229.46</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1084,6 +1360,9 @@
       <c r="B92" t="n">
         <v>203.03</v>
       </c>
+      <c r="C92" t="n">
+        <v>180.27</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1092,6 +1371,9 @@
       <c r="B93" t="n">
         <v>58.96</v>
       </c>
+      <c r="C93" t="n">
+        <v>115.85</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1100,6 +1382,9 @@
       <c r="B94" t="n">
         <v>383.63</v>
       </c>
+      <c r="C94" t="n">
+        <v>200.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1108,6 +1393,9 @@
       <c r="B95" t="n">
         <v>688.32</v>
       </c>
+      <c r="C95" t="n">
+        <v>263.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1116,6 +1404,9 @@
       <c r="B96" t="n">
         <v>676.48</v>
       </c>
+      <c r="C96" t="n">
+        <v>250.51</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1124,6 +1415,9 @@
       <c r="B97" t="n">
         <v>121.21</v>
       </c>
+      <c r="C97" t="n">
+        <v>159.45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1132,6 +1426,9 @@
       <c r="B98" t="n">
         <v>77.39</v>
       </c>
+      <c r="C98" t="n">
+        <v>144.32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1140,6 +1437,9 @@
       <c r="B99" t="n">
         <v>425.2</v>
       </c>
+      <c r="C99" t="n">
+        <v>266.27</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1148,6 +1448,9 @@
       <c r="B100" t="n">
         <v>7.88</v>
       </c>
+      <c r="C100" t="n">
+        <v>115.95</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1156,6 +1459,9 @@
       <c r="B101" t="n">
         <v>198.54</v>
       </c>
+      <c r="C101" t="n">
+        <v>129.84</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1164,6 +1470,9 @@
       <c r="B102" t="n">
         <v>3.17</v>
       </c>
+      <c r="C102" t="n">
+        <v>115.26</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1172,6 +1481,9 @@
       <c r="B103" t="n">
         <v>367.82</v>
       </c>
+      <c r="C103" t="n">
+        <v>223.58</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1180,6 +1492,9 @@
       <c r="B104" t="n">
         <v>1.64</v>
       </c>
+      <c r="C104" t="n">
+        <v>204.74</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1188,6 +1503,9 @@
       <c r="B105" t="n">
         <v>230.94</v>
       </c>
+      <c r="C105" t="n">
+        <v>200.89</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1196,6 +1514,9 @@
       <c r="B106" t="n">
         <v>65.44</v>
       </c>
+      <c r="C106" t="n">
+        <v>234.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1204,6 +1525,9 @@
       <c r="B107" t="n">
         <v>261.4</v>
       </c>
+      <c r="C107" t="n">
+        <v>87.01</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1212,6 +1536,9 @@
       <c r="B108" t="n">
         <v>459.48</v>
       </c>
+      <c r="C108" t="n">
+        <v>207.72</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1220,6 +1547,9 @@
       <c r="B109" t="n">
         <v>353.2</v>
       </c>
+      <c r="C109" t="n">
+        <v>185.38</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1228,6 +1558,9 @@
       <c r="B110" t="n">
         <v>195.86</v>
       </c>
+      <c r="C110" t="n">
+        <v>154.03</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1236,6 +1569,9 @@
       <c r="B111" t="n">
         <v>51.23</v>
       </c>
+      <c r="C111" t="n">
+        <v>155.93</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1244,6 +1580,9 @@
       <c r="B112" t="n">
         <v>228.8</v>
       </c>
+      <c r="C112" t="n">
+        <v>177.83</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1252,6 +1591,9 @@
       <c r="B113" t="n">
         <v>255.74</v>
       </c>
+      <c r="C113" t="n">
+        <v>191.29</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1260,6 +1602,9 @@
       <c r="B114" t="n">
         <v>565.9</v>
       </c>
+      <c r="C114" t="n">
+        <v>221.98</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1268,6 +1613,9 @@
       <c r="B115" t="n">
         <v>304.52</v>
       </c>
+      <c r="C115" t="n">
+        <v>266.86</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1276,6 +1624,9 @@
       <c r="B116" t="n">
         <v>34.48</v>
       </c>
+      <c r="C116" t="n">
+        <v>108.63</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1284,6 +1635,9 @@
       <c r="B117" t="n">
         <v>259.42</v>
       </c>
+      <c r="C117" t="n">
+        <v>204.44</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1292,6 +1646,9 @@
       <c r="B118" t="n">
         <v>200.46</v>
       </c>
+      <c r="C118" t="n">
+        <v>175.34</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1300,6 +1657,9 @@
       <c r="B119" t="n">
         <v>293.65</v>
       </c>
+      <c r="C119" t="n">
+        <v>220.23</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1308,6 +1668,9 @@
       <c r="B120" t="n">
         <v>434.88</v>
       </c>
+      <c r="C120" t="n">
+        <v>188.37</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1316,6 +1679,9 @@
       <c r="B121" t="n">
         <v>221.28</v>
       </c>
+      <c r="C121" t="n">
+        <v>199.79</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1324,6 +1690,9 @@
       <c r="B122" t="n">
         <v>188.49</v>
       </c>
+      <c r="C122" t="n">
+        <v>172.59</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1332,6 +1701,9 @@
       <c r="B123" t="n">
         <v>348.82</v>
       </c>
+      <c r="C123" t="n">
+        <v>140.99</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1340,6 +1712,9 @@
       <c r="B124" t="n">
         <v>373.32</v>
       </c>
+      <c r="C124" t="n">
+        <v>262.48</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1348,6 +1723,9 @@
       <c r="B125" t="n">
         <v>501.61</v>
       </c>
+      <c r="C125" t="n">
+        <v>230.67</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1356,6 +1734,9 @@
       <c r="B126" t="n">
         <v>296.96</v>
       </c>
+      <c r="C126" t="n">
+        <v>157.77</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1364,6 +1745,9 @@
       <c r="B127" t="n">
         <v>108.58</v>
       </c>
+      <c r="C127" t="n">
+        <v>154.72</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1372,6 +1756,9 @@
       <c r="B128" t="n">
         <v>148.18</v>
       </c>
+      <c r="C128" t="n">
+        <v>227.08</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1380,6 +1767,9 @@
       <c r="B129" t="n">
         <v>592.05</v>
       </c>
+      <c r="C129" t="n">
+        <v>327.06</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1388,6 +1778,9 @@
       <c r="B130" t="n">
         <v>90.57</v>
       </c>
+      <c r="C130" t="n">
+        <v>167.98</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1396,6 +1789,9 @@
       <c r="B131" t="n">
         <v>209.95</v>
       </c>
+      <c r="C131" t="n">
+        <v>232.37</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1404,6 +1800,9 @@
       <c r="B132" t="n">
         <v>292.82</v>
       </c>
+      <c r="C132" t="n">
+        <v>225.62</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1412,6 +1811,9 @@
       <c r="B133" t="n">
         <v>148.31</v>
       </c>
+      <c r="C133" t="n">
+        <v>117.36</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1420,6 +1822,9 @@
       <c r="B134" t="n">
         <v>140.4</v>
       </c>
+      <c r="C134" t="n">
+        <v>90.46</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1428,6 +1833,9 @@
       <c r="B135" t="n">
         <v>422.16</v>
       </c>
+      <c r="C135" t="n">
+        <v>151.51</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1436,6 +1844,9 @@
       <c r="B136" t="n">
         <v>788.28</v>
       </c>
+      <c r="C136" t="n">
+        <v>289.8</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1444,6 +1855,9 @@
       <c r="B137" t="n">
         <v>599.29</v>
       </c>
+      <c r="C137" t="n">
+        <v>279.36</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1452,6 +1866,9 @@
       <c r="B138" t="n">
         <v>53.36</v>
       </c>
+      <c r="C138" t="n">
+        <v>186.11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1460,6 +1877,9 @@
       <c r="B139" t="n">
         <v>35.09</v>
       </c>
+      <c r="C139" t="n">
+        <v>158.07</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1468,6 +1888,9 @@
       <c r="B140" t="n">
         <v>378.62</v>
       </c>
+      <c r="C140" t="n">
+        <v>218.61</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1476,6 +1899,9 @@
       <c r="B141" t="n">
         <v>89.2</v>
       </c>
+      <c r="C141" t="n">
+        <v>161.98</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1484,6 +1910,9 @@
       <c r="B142" t="n">
         <v>38.82</v>
       </c>
+      <c r="C142" t="n">
+        <v>118.58</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1492,6 +1921,9 @@
       <c r="B143" t="n">
         <v>461.27</v>
       </c>
+      <c r="C143" t="n">
+        <v>244.97</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1500,6 +1932,9 @@
       <c r="B144" t="n">
         <v>88.84</v>
       </c>
+      <c r="C144" t="n">
+        <v>168.83</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1508,6 +1943,9 @@
       <c r="B145" t="n">
         <v>958.8</v>
       </c>
+      <c r="C145" t="n">
+        <v>307.04</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1516,6 +1954,9 @@
       <c r="B146" t="n">
         <v>193.81</v>
       </c>
+      <c r="C146" t="n">
+        <v>231.75</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1524,6 +1965,9 @@
       <c r="B147" t="n">
         <v>424.22</v>
       </c>
+      <c r="C147" t="n">
+        <v>215.11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -1532,6 +1976,9 @@
       <c r="B148" t="n">
         <v>274.61</v>
       </c>
+      <c r="C148" t="n">
+        <v>219.52</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1540,6 +1987,9 @@
       <c r="B149" t="n">
         <v>165.59</v>
       </c>
+      <c r="C149" t="n">
+        <v>140.59</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1548,6 +1998,9 @@
       <c r="B150" t="n">
         <v>187.83</v>
       </c>
+      <c r="C150" t="n">
+        <v>203.1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1556,6 +2009,9 @@
       <c r="B151" t="n">
         <v>409.57</v>
       </c>
+      <c r="C151" t="n">
+        <v>253.1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -1564,6 +2020,9 @@
       <c r="B152" t="n">
         <v>685.92</v>
       </c>
+      <c r="C152" t="n">
+        <v>259.88</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1572,6 +2031,9 @@
       <c r="B153" t="n">
         <v>96.36</v>
       </c>
+      <c r="C153" t="n">
+        <v>220.7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1580,6 +2042,9 @@
       <c r="B154" t="n">
         <v>84.11</v>
       </c>
+      <c r="C154" t="n">
+        <v>155.79</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -1588,6 +2053,9 @@
       <c r="B155" t="n">
         <v>256.39</v>
       </c>
+      <c r="C155" t="n">
+        <v>187.15</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -1596,6 +2064,9 @@
       <c r="B156" t="n">
         <v>536.47</v>
       </c>
+      <c r="C156" t="n">
+        <v>204.92</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1604,6 +2075,9 @@
       <c r="B157" t="n">
         <v>618.24</v>
       </c>
+      <c r="C157" t="n">
+        <v>284.3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1612,6 +2086,9 @@
       <c r="B158" t="n">
         <v>658.65</v>
       </c>
+      <c r="C158" t="n">
+        <v>267.55</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1620,6 +2097,9 @@
       <c r="B159" t="n">
         <v>140.83</v>
       </c>
+      <c r="C159" t="n">
+        <v>209.66</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -1628,6 +2108,9 @@
       <c r="B160" t="n">
         <v>251.97</v>
       </c>
+      <c r="C160" t="n">
+        <v>225.74</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1636,6 +2119,9 @@
       <c r="B161" t="n">
         <v>314.52</v>
       </c>
+      <c r="C161" t="n">
+        <v>192.54</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -1644,6 +2130,9 @@
       <c r="B162" t="n">
         <v>167.76</v>
       </c>
+      <c r="C162" t="n">
+        <v>201.45</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -1652,6 +2141,9 @@
       <c r="B163" t="n">
         <v>1115.57</v>
       </c>
+      <c r="C163" t="n">
+        <v>318.99</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -1660,6 +2152,9 @@
       <c r="B164" t="n">
         <v>410.78</v>
       </c>
+      <c r="C164" t="n">
+        <v>195.45</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1668,6 +2163,9 @@
       <c r="B165" t="n">
         <v>349.48</v>
       </c>
+      <c r="C165" t="n">
+        <v>278.75</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -1676,6 +2174,9 @@
       <c r="B166" t="n">
         <v>549.59</v>
       </c>
+      <c r="C166" t="n">
+        <v>225.88</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -1684,6 +2185,9 @@
       <c r="B167" t="n">
         <v>400.44</v>
       </c>
+      <c r="C167" t="n">
+        <v>199.73</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -1692,6 +2196,9 @@
       <c r="B168" t="n">
         <v>604.58</v>
       </c>
+      <c r="C168" t="n">
+        <v>249.9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -1700,6 +2207,9 @@
       <c r="B169" t="n">
         <v>254.65</v>
       </c>
+      <c r="C169" t="n">
+        <v>129.78</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -1708,6 +2218,9 @@
       <c r="B170" t="n">
         <v>231.7</v>
       </c>
+      <c r="C170" t="n">
+        <v>144.44</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -1716,6 +2229,9 @@
       <c r="B171" t="n">
         <v>437.58</v>
       </c>
+      <c r="C171" t="n">
+        <v>193.03</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -1724,6 +2240,9 @@
       <c r="B172" t="n">
         <v>368.15</v>
       </c>
+      <c r="C172" t="n">
+        <v>211.2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -1732,6 +2251,9 @@
       <c r="B173" t="n">
         <v>107.65</v>
       </c>
+      <c r="C173" t="n">
+        <v>128.37</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -1740,6 +2262,9 @@
       <c r="B174" t="n">
         <v>132.49</v>
       </c>
+      <c r="C174" t="n">
+        <v>162.84</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -1748,6 +2273,9 @@
       <c r="B175" t="n">
         <v>383.98</v>
       </c>
+      <c r="C175" t="n">
+        <v>240.25</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -1756,6 +2284,9 @@
       <c r="B176" t="n">
         <v>80.89</v>
       </c>
+      <c r="C176" t="n">
+        <v>125.21</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -1764,6 +2295,9 @@
       <c r="B177" t="n">
         <v>598.54</v>
       </c>
+      <c r="C177" t="n">
+        <v>246.44</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -1772,6 +2306,9 @@
       <c r="B178" t="n">
         <v>197.52</v>
       </c>
+      <c r="C178" t="n">
+        <v>198.09</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -1780,6 +2317,9 @@
       <c r="B179" t="n">
         <v>566.04</v>
       </c>
+      <c r="C179" t="n">
+        <v>229.56</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -1788,6 +2328,9 @@
       <c r="B180" t="n">
         <v>493.44</v>
       </c>
+      <c r="C180" t="n">
+        <v>260.01</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -1796,6 +2339,9 @@
       <c r="B181" t="n">
         <v>396.61</v>
       </c>
+      <c r="C181" t="n">
+        <v>195.46</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -1804,6 +2350,9 @@
       <c r="B182" t="n">
         <v>501.78</v>
       </c>
+      <c r="C182" t="n">
+        <v>192.33</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -1812,6 +2361,9 @@
       <c r="B183" t="n">
         <v>197.23</v>
       </c>
+      <c r="C183" t="n">
+        <v>176.38</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -1820,6 +2372,9 @@
       <c r="B184" t="n">
         <v>81.06</v>
       </c>
+      <c r="C184" t="n">
+        <v>102.44</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -1828,6 +2383,9 @@
       <c r="B185" t="n">
         <v>322.29</v>
       </c>
+      <c r="C185" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -1836,6 +2394,9 @@
       <c r="B186" t="n">
         <v>187.15</v>
       </c>
+      <c r="C186" t="n">
+        <v>140.69</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -1844,6 +2405,9 @@
       <c r="B187" t="n">
         <v>107.78</v>
       </c>
+      <c r="C187" t="n">
+        <v>234.67</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -1852,6 +2416,9 @@
       <c r="B188" t="n">
         <v>273.73</v>
       </c>
+      <c r="C188" t="n">
+        <v>159.99</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -1860,6 +2427,9 @@
       <c r="B189" t="n">
         <v>393.82</v>
       </c>
+      <c r="C189" t="n">
+        <v>223.05</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -1868,6 +2438,9 @@
       <c r="B190" t="n">
         <v>434.2</v>
       </c>
+      <c r="C190" t="n">
+        <v>177.62</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -1876,6 +2449,9 @@
       <c r="B191" t="n">
         <v>17.85</v>
       </c>
+      <c r="C191" t="n">
+        <v>139.63</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -1884,6 +2460,9 @@
       <c r="B192" t="n">
         <v>194.45</v>
       </c>
+      <c r="C192" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -1892,6 +2471,9 @@
       <c r="B193" t="n">
         <v>326.13</v>
       </c>
+      <c r="C193" t="n">
+        <v>202.13</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -1900,6 +2482,9 @@
       <c r="B194" t="n">
         <v>270.03</v>
       </c>
+      <c r="C194" t="n">
+        <v>237.31</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -1908,6 +2493,9 @@
       <c r="B195" t="n">
         <v>233.74</v>
       </c>
+      <c r="C195" t="n">
+        <v>173.36</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -1916,6 +2504,9 @@
       <c r="B196" t="n">
         <v>256.1</v>
       </c>
+      <c r="C196" t="n">
+        <v>136.73</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -1924,6 +2515,9 @@
       <c r="B197" t="n">
         <v>318.8</v>
       </c>
+      <c r="C197" t="n">
+        <v>222.96</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -1932,6 +2526,9 @@
       <c r="B198" t="n">
         <v>274.41</v>
       </c>
+      <c r="C198" t="n">
+        <v>232.72</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -1940,6 +2537,9 @@
       <c r="B199" t="n">
         <v>571.59</v>
       </c>
+      <c r="C199" t="n">
+        <v>303.32</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -1948,6 +2548,9 @@
       <c r="B200" t="n">
         <v>214.52</v>
       </c>
+      <c r="C200" t="n">
+        <v>197.3</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -1956,6 +2559,9 @@
       <c r="B201" t="n">
         <v>314.35</v>
       </c>
+      <c r="C201" t="n">
+        <v>135.18</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -1964,6 +2570,9 @@
       <c r="B202" t="n">
         <v>442.34</v>
       </c>
+      <c r="C202" t="n">
+        <v>183.26</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -1972,6 +2581,9 @@
       <c r="B203" t="n">
         <v>291.92</v>
       </c>
+      <c r="C203" t="n">
+        <v>173.99</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -1980,6 +2592,9 @@
       <c r="B204" t="n">
         <v>433.31</v>
       </c>
+      <c r="C204" t="n">
+        <v>177.51</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -1988,6 +2603,9 @@
       <c r="B205" t="n">
         <v>420.17</v>
       </c>
+      <c r="C205" t="n">
+        <v>188.05</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -1996,6 +2614,9 @@
       <c r="B206" t="n">
         <v>38.3</v>
       </c>
+      <c r="C206" t="n">
+        <v>169.81</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2004,6 +2625,9 @@
       <c r="B207" t="n">
         <v>538.2</v>
       </c>
+      <c r="C207" t="n">
+        <v>266.01</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2012,6 +2636,9 @@
       <c r="B208" t="n">
         <v>727.11</v>
       </c>
+      <c r="C208" t="n">
+        <v>228.61</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2020,6 +2647,9 @@
       <c r="B209" t="n">
         <v>1105.9</v>
       </c>
+      <c r="C209" t="n">
+        <v>312.91</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2028,6 +2658,9 @@
       <c r="B210" t="n">
         <v>298.92</v>
       </c>
+      <c r="C210" t="n">
+        <v>210.7</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2036,6 +2669,9 @@
       <c r="B211" t="n">
         <v>264.1</v>
       </c>
+      <c r="C211" t="n">
+        <v>254.18</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2044,6 +2680,9 @@
       <c r="B212" t="n">
         <v>197.27</v>
       </c>
+      <c r="C212" t="n">
+        <v>223.33</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2052,6 +2691,9 @@
       <c r="B213" t="n">
         <v>261.53</v>
       </c>
+      <c r="C213" t="n">
+        <v>230.9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2060,6 +2702,9 @@
       <c r="B214" t="n">
         <v>382.81</v>
       </c>
+      <c r="C214" t="n">
+        <v>225.37</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2068,6 +2713,9 @@
       <c r="B215" t="n">
         <v>135.47</v>
       </c>
+      <c r="C215" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2076,6 +2724,9 @@
       <c r="B216" t="n">
         <v>141.26</v>
       </c>
+      <c r="C216" t="n">
+        <v>157.79</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2084,6 +2735,9 @@
       <c r="B217" t="n">
         <v>428.8</v>
       </c>
+      <c r="C217" t="n">
+        <v>183.53</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2092,6 +2746,9 @@
       <c r="B218" t="n">
         <v>285.43</v>
       </c>
+      <c r="C218" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2100,6 +2757,9 @@
       <c r="B219" t="n">
         <v>321.98</v>
       </c>
+      <c r="C219" t="n">
+        <v>217.39</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2108,6 +2768,9 @@
       <c r="B220" t="n">
         <v>568.77</v>
       </c>
+      <c r="C220" t="n">
+        <v>272.57</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2116,6 +2779,9 @@
       <c r="B221" t="n">
         <v>230.89</v>
       </c>
+      <c r="C221" t="n">
+        <v>95.3</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -2124,6 +2790,9 @@
       <c r="B222" t="n">
         <v>469.16</v>
       </c>
+      <c r="C222" t="n">
+        <v>180.18</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2132,6 +2801,9 @@
       <c r="B223" t="n">
         <v>139.87</v>
       </c>
+      <c r="C223" t="n">
+        <v>178.57</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2140,6 +2812,9 @@
       <c r="B224" t="n">
         <v>313.77</v>
       </c>
+      <c r="C224" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2148,6 +2823,9 @@
       <c r="B225" t="n">
         <v>304.35</v>
       </c>
+      <c r="C225" t="n">
+        <v>217.09</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2156,6 +2834,9 @@
       <c r="B226" t="n">
         <v>152.22</v>
       </c>
+      <c r="C226" t="n">
+        <v>201.74</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2164,6 +2845,9 @@
       <c r="B227" t="n">
         <v>886.49</v>
       </c>
+      <c r="C227" t="n">
+        <v>363.87</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2172,6 +2856,9 @@
       <c r="B228" t="n">
         <v>608.33</v>
       </c>
+      <c r="C228" t="n">
+        <v>236.13</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -2180,6 +2867,9 @@
       <c r="B229" t="n">
         <v>469.02</v>
       </c>
+      <c r="C229" t="n">
+        <v>212.62</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2188,6 +2878,9 @@
       <c r="B230" t="n">
         <v>567.37</v>
       </c>
+      <c r="C230" t="n">
+        <v>281.07</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -2196,6 +2889,9 @@
       <c r="B231" t="n">
         <v>112.73</v>
       </c>
+      <c r="C231" t="n">
+        <v>160.24</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2204,6 +2900,9 @@
       <c r="B232" t="n">
         <v>494.64</v>
       </c>
+      <c r="C232" t="n">
+        <v>196.49</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -2212,6 +2911,9 @@
       <c r="B233" t="n">
         <v>191.88</v>
       </c>
+      <c r="C233" t="n">
+        <v>160.15</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -2220,6 +2922,9 @@
       <c r="B234" t="n">
         <v>219.5</v>
       </c>
+      <c r="C234" t="n">
+        <v>198.52</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -2228,6 +2933,9 @@
       <c r="B235" t="n">
         <v>253.31</v>
       </c>
+      <c r="C235" t="n">
+        <v>214.5</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -2236,6 +2944,9 @@
       <c r="B236" t="n">
         <v>281.86</v>
       </c>
+      <c r="C236" t="n">
+        <v>144.09</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -2244,6 +2955,9 @@
       <c r="B237" t="n">
         <v>187.49</v>
       </c>
+      <c r="C237" t="n">
+        <v>157.42</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -2252,6 +2966,9 @@
       <c r="B238" t="n">
         <v>518.65</v>
       </c>
+      <c r="C238" t="n">
+        <v>283.28</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -2260,6 +2977,9 @@
       <c r="B239" t="n">
         <v>516.65</v>
       </c>
+      <c r="C239" t="n">
+        <v>269.68</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -2268,6 +2988,9 @@
       <c r="B240" t="n">
         <v>339.23</v>
       </c>
+      <c r="C240" t="n">
+        <v>200.4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -2276,6 +2999,9 @@
       <c r="B241" t="n">
         <v>116.07</v>
       </c>
+      <c r="C241" t="n">
+        <v>180.85</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -2284,6 +3010,9 @@
       <c r="B242" t="n">
         <v>441.78</v>
       </c>
+      <c r="C242" t="n">
+        <v>209.31</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -2292,6 +3021,9 @@
       <c r="B243" t="n">
         <v>431.2</v>
       </c>
+      <c r="C243" t="n">
+        <v>302.79</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -2300,6 +3032,9 @@
       <c r="B244" t="n">
         <v>443.68</v>
       </c>
+      <c r="C244" t="n">
+        <v>241.56</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -2308,6 +3043,9 @@
       <c r="B245" t="n">
         <v>371.2</v>
       </c>
+      <c r="C245" t="n">
+        <v>251.68</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -2316,6 +3054,9 @@
       <c r="B246" t="n">
         <v>51.61</v>
       </c>
+      <c r="C246" t="n">
+        <v>151.34</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -2324,6 +3065,9 @@
       <c r="B247" t="n">
         <v>278.5</v>
       </c>
+      <c r="C247" t="n">
+        <v>158.68</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -2332,6 +3076,9 @@
       <c r="B248" t="n">
         <v>289.98</v>
       </c>
+      <c r="C248" t="n">
+        <v>146.61</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -2340,6 +3087,9 @@
       <c r="B249" t="n">
         <v>359.17</v>
       </c>
+      <c r="C249" t="n">
+        <v>180.9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -2348,6 +3098,9 @@
       <c r="B250" t="n">
         <v>291.98</v>
       </c>
+      <c r="C250" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -2356,6 +3109,9 @@
       <c r="B251" t="n">
         <v>400.08</v>
       </c>
+      <c r="C251" t="n">
+        <v>200.66</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -2364,6 +3120,9 @@
       <c r="B252" t="n">
         <v>426.31</v>
       </c>
+      <c r="C252" t="n">
+        <v>172.61</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -2372,6 +3131,9 @@
       <c r="B253" t="n">
         <v>204.35</v>
       </c>
+      <c r="C253" t="n">
+        <v>201.6</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -2380,6 +3142,9 @@
       <c r="B254" t="n">
         <v>633.26</v>
       </c>
+      <c r="C254" t="n">
+        <v>233.4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -2388,6 +3153,9 @@
       <c r="B255" t="n">
         <v>161.65</v>
       </c>
+      <c r="C255" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -2396,6 +3164,9 @@
       <c r="B256" t="n">
         <v>127.27</v>
       </c>
+      <c r="C256" t="n">
+        <v>132.02</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -2404,6 +3175,9 @@
       <c r="B257" t="n">
         <v>411.9</v>
       </c>
+      <c r="C257" t="n">
+        <v>212.14</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -2412,6 +3186,9 @@
       <c r="B258" t="n">
         <v>332.61</v>
       </c>
+      <c r="C258" t="n">
+        <v>223.55</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -2420,6 +3197,9 @@
       <c r="B259" t="n">
         <v>56.59</v>
       </c>
+      <c r="C259" t="n">
+        <v>177.06</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -2428,6 +3208,9 @@
       <c r="B260" t="n">
         <v>93.43</v>
       </c>
+      <c r="C260" t="n">
+        <v>169.57</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -2436,6 +3219,9 @@
       <c r="B261" t="n">
         <v>141.83</v>
       </c>
+      <c r="C261" t="n">
+        <v>221.75</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -2444,6 +3230,9 @@
       <c r="B262" t="n">
         <v>613.12</v>
       </c>
+      <c r="C262" t="n">
+        <v>237.02</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -2452,6 +3241,9 @@
       <c r="B263" t="n">
         <v>401.09</v>
       </c>
+      <c r="C263" t="n">
+        <v>248.98</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -2460,6 +3252,9 @@
       <c r="B264" t="n">
         <v>517.02</v>
       </c>
+      <c r="C264" t="n">
+        <v>261.56</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -2468,6 +3263,9 @@
       <c r="B265" t="n">
         <v>114.34</v>
       </c>
+      <c r="C265" t="n">
+        <v>180.78</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -2476,6 +3274,9 @@
       <c r="B266" t="n">
         <v>335.49</v>
       </c>
+      <c r="C266" t="n">
+        <v>227.54</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -2484,6 +3285,9 @@
       <c r="B267" t="n">
         <v>199.17</v>
       </c>
+      <c r="C267" t="n">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -2492,6 +3296,9 @@
       <c r="B268" t="n">
         <v>390.27</v>
       </c>
+      <c r="C268" t="n">
+        <v>163.14</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -2500,6 +3307,9 @@
       <c r="B269" t="n">
         <v>611.69</v>
       </c>
+      <c r="C269" t="n">
+        <v>272.09</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -2508,6 +3318,9 @@
       <c r="B270" t="n">
         <v>255.94</v>
       </c>
+      <c r="C270" t="n">
+        <v>177.63</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -2516,6 +3329,9 @@
       <c r="B271" t="n">
         <v>291.86</v>
       </c>
+      <c r="C271" t="n">
+        <v>185.56</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -2524,6 +3340,9 @@
       <c r="B272" t="n">
         <v>199.3</v>
       </c>
+      <c r="C272" t="n">
+        <v>196.43</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -2532,6 +3351,9 @@
       <c r="B273" t="n">
         <v>381.86</v>
       </c>
+      <c r="C273" t="n">
+        <v>220.61</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -2540,6 +3362,9 @@
       <c r="B274" t="n">
         <v>503.71</v>
       </c>
+      <c r="C274" t="n">
+        <v>251.76</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -2548,6 +3373,9 @@
       <c r="B275" t="n">
         <v>525.63</v>
       </c>
+      <c r="C275" t="n">
+        <v>295.9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -2556,6 +3384,9 @@
       <c r="B276" t="n">
         <v>67.25</v>
       </c>
+      <c r="C276" t="n">
+        <v>213.84</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -2564,6 +3395,9 @@
       <c r="B277" t="n">
         <v>269.73</v>
       </c>
+      <c r="C277" t="n">
+        <v>217.74</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -2572,6 +3406,9 @@
       <c r="B278" t="n">
         <v>492.03</v>
       </c>
+      <c r="C278" t="n">
+        <v>252.41</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -2580,6 +3417,9 @@
       <c r="B279" t="n">
         <v>434.08</v>
       </c>
+      <c r="C279" t="n">
+        <v>263.45</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -2588,6 +3428,9 @@
       <c r="B280" t="n">
         <v>355.84</v>
       </c>
+      <c r="C280" t="n">
+        <v>219.67</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -2596,6 +3439,9 @@
       <c r="B281" t="n">
         <v>537.43</v>
       </c>
+      <c r="C281" t="n">
+        <v>212.86</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -2603,6 +3449,9 @@
       </c>
       <c r="B282" t="n">
         <v>266.74</v>
+      </c>
+      <c r="C282" t="n">
+        <v>178.46</v>
       </c>
     </row>
   </sheetData>
